--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,209 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1972300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1957800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1778900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1902100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2011900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2021500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1902500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1781300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1903300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1923600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1748900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1783800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1878800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1212300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1203800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1079300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1209700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1238100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1250200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1224300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1086900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1174800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1168600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1086800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1131300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1155900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E10" s="3">
         <v>754000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>699600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>692400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>773800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>771300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>678200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>694400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>728500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>755000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>662100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>652500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>722900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,52 +976,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3300</v>
+        <v>55700</v>
       </c>
       <c r="E14" s="3">
         <v>3300</v>
       </c>
       <c r="F14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G14" s="3">
         <v>110000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>125000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>182500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>73300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>93700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1016,40 +1038,43 @@
         <v>58800</v>
       </c>
       <c r="F15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G15" s="3">
         <v>60400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>59700</v>
       </c>
       <c r="H15" s="3">
         <v>59700</v>
       </c>
       <c r="I15" s="3">
+        <v>59700</v>
+      </c>
+      <c r="J15" s="3">
         <v>60500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>52100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>51600</v>
       </c>
       <c r="L15" s="3">
         <v>51600</v>
       </c>
       <c r="M15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="N15" s="3">
         <v>51500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>52100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1683300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1628000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1521300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1748500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1794300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1691000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1675600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1464500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1740600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1592900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1515100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1587100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1641100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E18" s="3">
         <v>329800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>257600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>153600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>217600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>330500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>226900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>316800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>330700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>233800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>196700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>237700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1201,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>399700</v>
+      </c>
+      <c r="E21" s="3">
         <v>439600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>365700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>263300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>319700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>434200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>338600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>412800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>262800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>435600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>337000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>306400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>342200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E22" s="3">
         <v>49100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>49400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>49100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>53600</v>
       </c>
       <c r="I22" s="3">
         <v>53600</v>
       </c>
       <c r="J22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K22" s="3">
         <v>47400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>40300</v>
       </c>
       <c r="O22" s="3">
         <v>40300</v>
       </c>
       <c r="P22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E23" s="3">
         <v>279100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>206700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>101900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>157200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>269400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>173100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>264200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>291800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>189000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>161900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>197600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E24" s="3">
         <v>67900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>80900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>78300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>62200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E26" s="3">
         <v>211200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>154600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>121400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>188500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>133000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>185900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>65500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>194600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>126800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>134600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E27" s="3">
         <v>209900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>153800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>120800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>187500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>132300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>185200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>193500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>126200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>134000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1622,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,14 +1648,14 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>765800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1669,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E33" s="3">
         <v>209900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>153800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>187500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>132300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>185200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>826900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>193500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>126200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>134000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E35" s="3">
         <v>209900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>153800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>187500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>132300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>185200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>826900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>193500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>126200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>134000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2043,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48800</v>
+        <v>74400</v>
       </c>
       <c r="E41" s="3">
         <v>48800</v>
       </c>
       <c r="F41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G41" s="3">
         <v>101300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>206500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>171200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>192000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>192600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>186200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>180300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>183200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>139600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2029,201 +2118,216 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>477300</v>
+      </c>
+      <c r="E43" s="3">
         <v>522400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>473700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>503800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>502600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>561900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>504200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>385600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>422700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>481600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>433700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>438700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>421400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1013300</v>
+        <v>958800</v>
       </c>
       <c r="E44" s="3">
         <v>1013300</v>
       </c>
       <c r="F44" s="3">
+        <v>1013300</v>
+      </c>
+      <c r="G44" s="3">
         <v>910300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>924700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>966200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1017400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>854400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>909100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1011700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>981300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>905700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>995600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E45" s="3">
         <v>74700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>77700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>109800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>92200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>122400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>122200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>121200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1602700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1659200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1613500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1625200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1726200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1787200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1805800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1555000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1609900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1785800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1692100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1641800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1690900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2233,11 +2337,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>40900</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2248,8 +2352,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2266,96 +2370,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2079700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2068700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2058400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1912400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1847900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1818700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1827900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1729100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1633700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1615700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1595700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1617500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1574300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12804200</v>
+      </c>
+      <c r="E49" s="3">
         <v>12916300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12974400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13029700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13197900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13400200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13717000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11858700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11920200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12137600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12196400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12227000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12346700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2558,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E52" s="3">
         <v>146800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>145300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>155600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>168100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>162300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>158400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>162900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>157400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>153400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>199800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16636200</v>
+      </c>
+      <c r="E54" s="3">
         <v>16791000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16791600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16711300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16927600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17174200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17513000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15301200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15329200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15702000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15641600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15639700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15811700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2739,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E57" s="3">
         <v>521800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>503100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>591000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>519600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>552400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>532100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>512100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>471200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>507400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>477600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>477200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>428500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1129800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1097400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1224500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>803300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>390000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>530000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>144000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>254000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>963500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>783200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>953000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>142000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>690400</v>
+      </c>
+      <c r="E59" s="3">
         <v>658500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>690300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>526000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>493500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>492100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>481900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>377700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>364700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>383600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>490100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>402400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>426700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2077400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2310100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2290800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2341500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1816400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1434500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1544000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1033800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1089900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1854500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1750900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1832600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>997200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4587000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4588200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4689000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4686300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5285800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5885100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6184900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4688000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4688500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4294100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4444800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4445500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4945000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1801400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1797400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1804100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1713000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1803800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1824600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1853300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1688300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1746600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2517100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2514000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2511400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2627600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8465800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8695700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8783900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8740800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8906000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9144200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9582200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7410100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7525000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8665700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8709700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8789500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8569800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2620500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2533000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2421900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2367600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2392600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2367600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2275600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2239200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2126700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1383800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1277800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1240500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1480700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8170400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8095300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8007700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7970500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8021600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8030000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7930800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7891100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7804200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7036300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6931900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6850200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7241900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E81" s="3">
         <v>209900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>153800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>187500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>132300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>185200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>826900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>193500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>126200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>134000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E83" s="3">
         <v>111400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>109600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>112300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>110900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>111200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>111900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>101200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>103700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>102200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>521600</v>
+      </c>
+      <c r="E89" s="3">
         <v>224000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>221500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>274200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>421100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>202900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>243000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>314400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>469000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>130300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>304300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>264200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>419500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4164,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-92600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-111600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-52600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52100</v>
+        <v>-73400</v>
       </c>
       <c r="E94" s="3">
         <v>-52100</v>
       </c>
       <c r="F94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-101400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>312600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-105800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4371,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4148,7 +4381,7 @@
         <v>-100100</v>
       </c>
       <c r="E96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="F96" s="3">
         <v>-96500</v>
@@ -4160,31 +4393,34 @@
         <v>-96500</v>
       </c>
       <c r="I96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-88400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-88900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-88000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-88500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-84900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-87200</v>
       </c>
       <c r="O96" s="3">
         <v>-87200</v>
       </c>
       <c r="P96" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-420900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-172600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-222600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-274600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-282600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-534300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1790500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-404000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-61100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-260100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-193700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-351300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
+        <v>700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-52500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-105200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,233 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1971800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2092000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1972300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1957800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1778900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1902100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2011900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2021500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1902500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1781300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1903300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1923600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1748900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1783800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1878800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1196400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1303600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1212300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1203800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1079300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1209700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1238100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1250200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1224300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1086900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1174800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1168600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1086800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1131300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1155900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>775400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>788400</v>
+      </c>
+      <c r="F10" s="3">
         <v>760000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>754000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>699600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>692400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>773800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>771300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>678200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>694400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>728500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>755000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>662100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>652500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>722900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +909,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +958,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,102 +1011,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F14" s="3">
         <v>55700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>110000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>125000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>7700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>9800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>182500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>9700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>27100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>73300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>93700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>58800</v>
+        <v>59600</v>
       </c>
       <c r="E15" s="3">
-        <v>58800</v>
+        <v>59900</v>
       </c>
       <c r="F15" s="3">
         <v>58800</v>
       </c>
       <c r="G15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="I15" s="3">
         <v>60400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>59700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>59700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>60500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>52100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>51600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>51600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>51500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>52100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>51700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1139,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1610700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1745300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1683300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1628000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1521300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1748500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1794300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1691000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1675600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1464500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1740600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1592900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1515100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1587100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1641100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>361100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>346700</v>
+      </c>
+      <c r="F18" s="3">
         <v>289000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>329800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>257600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>153600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>217600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>330500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>226900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>316800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>162700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>330700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>233800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>196700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>237700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,8 +1266,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,234 +1277,264 @@
         <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-8800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>473400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>457400</v>
+      </c>
+      <c r="F21" s="3">
         <v>399700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>439600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>365700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>263300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>319700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>434200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>338600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>412800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>262800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>435600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>337000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>306400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>342200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F22" s="3">
         <v>45100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>49100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>49400</v>
       </c>
       <c r="G22" s="3">
         <v>49100</v>
       </c>
       <c r="H22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J22" s="3">
         <v>51600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>53600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>53600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>47400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>43100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>41600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>42000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>40300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>40300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>313600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>298400</v>
+      </c>
+      <c r="F23" s="3">
         <v>242500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>279100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>206700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>101900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>157200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>269400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>173100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>264200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>116000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>291800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>189000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>161900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>197600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F24" s="3">
         <v>55100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>67900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>52100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>30400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>35800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>80900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>40100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>78300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>50500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>97200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>62200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>51500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>63000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1580,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>226300</v>
+      </c>
+      <c r="F26" s="3">
         <v>187400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>211200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>154600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>71500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>121400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>188500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>133000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>185900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>65500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>194600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>126800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>110400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>134600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>225100</v>
+      </c>
+      <c r="F27" s="3">
         <v>186300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>209900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>153800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>71200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>120800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>187500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>132300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>185200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>61100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>193500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>126200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>109800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>134000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1739,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,17 +1771,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>765800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1672,8 +1792,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1845,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,8 +1898,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1775,93 +1913,105 @@
         <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>8800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>225100</v>
+      </c>
+      <c r="F33" s="3">
         <v>186300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>209900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>153800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>71200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>120800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>187500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>132300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>185200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>826900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>193500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>126200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>109800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>134000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +2057,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>225100</v>
+      </c>
+      <c r="F35" s="3">
         <v>186300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>209900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>153800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>71200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>120800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>187500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>132300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>185200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>826900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>193500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>126200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>109800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>134000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2193,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,55 +2214,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>391100</v>
+      </c>
+      <c r="F41" s="3">
         <v>74400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>48800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>48800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>101300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>206500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>171200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>192000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>192600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>186200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>180300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>183200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>166800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>139600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2121,233 +2299,263 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>11600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>19600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>8400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>551400</v>
+      </c>
+      <c r="F43" s="3">
         <v>477300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>522400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>473700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>503800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>502600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>561900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>504200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>385600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>422700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>481600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>433700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>438700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>421400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>995000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>895300</v>
+      </c>
+      <c r="F44" s="3">
         <v>958800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1013300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1013300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>910300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>924700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>966200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1017400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>854400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>909100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1011700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>981300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>905700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>995600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>134900</v>
+      </c>
+      <c r="F45" s="3">
         <v>92200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>74700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>77700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>109800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>92400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>87900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>92200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>122400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>82900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>74300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>122200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>121200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1984800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1972700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1602700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1659200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1613500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1625200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1726200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1787200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1805800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1555000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1609900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1785800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1692100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1641800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1690900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="E47" s="3">
+        <v>38600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>40900</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>40900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2355,11 +2563,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2373,102 +2581,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2086900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2117800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2079700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2068700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2058400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1912400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1847900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1818700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1827900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1729100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1633700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1615700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1595700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1617500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1574300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12682300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12733500</v>
+      </c>
+      <c r="F49" s="3">
         <v>12804200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12916300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12974400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>13029700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13197900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>13400200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13717000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11858700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>11920200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12137600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12196400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12227000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12346700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2740,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2793,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F52" s="3">
         <v>149600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>146800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>145300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>103100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>155600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>168100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>162300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>158400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>165400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>162900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>157400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>153400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>199800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2899,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16902300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16970400</v>
+      </c>
+      <c r="F54" s="3">
         <v>16636200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16791000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16791600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16711300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16927600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>17174200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17513000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15301200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15329200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15702000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15641600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15639700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>15811700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2977,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2998,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>780600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>782000</v>
+      </c>
+      <c r="F57" s="3">
         <v>575000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>521800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>503100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>591000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>519600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>552400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>532100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>512100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>471200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>507400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>477600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>477200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>428500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>697900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>250200</v>
+      </c>
+      <c r="F58" s="3">
         <v>812000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1129800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1097400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1224500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>803300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>390000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>530000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>144000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>254000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>963500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>783200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>953000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>142000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>594600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>554900</v>
+      </c>
+      <c r="F59" s="3">
         <v>690400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>658500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>690300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>526000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>493500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>492100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>481900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>377700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>364700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>383600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>490100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>402400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>426700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2073100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1587100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2077400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2310100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2290800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2341500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1816400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1434500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1544000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1033800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1089900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1854500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1750900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1832600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>997200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4676000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5376800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4587000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4588200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4689000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4686300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5285800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5885100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6184900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4688000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4688500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4294100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4444800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4445500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4945000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1808000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1815600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1801400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1797400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1804100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1713000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1803800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1824600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1853300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1688300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1746600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2517100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2514000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2511400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2627600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3365,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3418,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3471,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8557100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8779500</v>
+      </c>
+      <c r="F66" s="3">
         <v>8465800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8695700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8783900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8740800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8906000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9144200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9582200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7410100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7525000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8665700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8709700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8789500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8569800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3549,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3598,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3651,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3704,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3757,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2882300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2746800</v>
+      </c>
+      <c r="F72" s="3">
         <v>2620500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2533000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2421900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>2367600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2392600</v>
       </c>
       <c r="I72" s="3">
         <v>2367600</v>
       </c>
       <c r="J72" s="3">
+        <v>2392600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>2367600</v>
+      </c>
+      <c r="L72" s="3">
         <v>2275600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2239200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2126700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1383800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1277800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1240500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1480700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3863,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3916,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3969,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8345200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8190900</v>
+      </c>
+      <c r="F76" s="3">
         <v>8170400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8095300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8007700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7970500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8021600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8030000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7930800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7891100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7804200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7036300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6931900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6850200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7241900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +4075,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>225100</v>
+      </c>
+      <c r="F81" s="3">
         <v>186300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>209900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>153800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>71200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>120800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>187500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>132300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>185200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>826900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>193500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>126200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>109800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>134000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4211,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>113400</v>
+      </c>
+      <c r="F83" s="3">
         <v>112100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>111400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>109600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>112300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>110900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>111200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>111900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>101200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>103700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>102200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>106000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>104200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>104300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4313,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4366,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4419,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4472,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4525,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>287700</v>
+      </c>
+      <c r="F89" s="3">
         <v>521600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>224000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>221500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>274200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>421100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>202900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>243000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>314400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>469000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>130300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>304300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>264200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>419500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4603,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-56500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-63400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-73000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-92600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-88100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-77800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-101300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-111600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-80300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-60400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-69600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-55800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4705,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4758,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-73400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-52100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-52100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-101400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-103900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>312600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-105800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-65500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-68200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-38100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-41600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,8 +4836,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4384,10 +4850,10 @@
         <v>-100100</v>
       </c>
       <c r="F96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="G96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="H96" s="3">
         <v>-96500</v>
@@ -4396,31 +4862,37 @@
         <v>-96500</v>
       </c>
       <c r="J96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-88400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-88900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-88000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-88500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-84900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-87200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4938,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4991,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +5044,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-357300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>127400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-420900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-172600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-222600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-274600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-282600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-534300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1790500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-196800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-404000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-61100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-260100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-193700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-351300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3400</v>
       </c>
       <c r="H101" s="3">
         <v>700</v>
       </c>
       <c r="I101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>10300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>316700</v>
+      </c>
+      <c r="F102" s="3">
         <v>25600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-52500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-105200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>35300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-20800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>16400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>27200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>17800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1971800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2092000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1972300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1957800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1778900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1902100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2011900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2021500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1902500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1781300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1903300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1923600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1748900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1783800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1878800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1215800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1196400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1303600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1212300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1203800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1079300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1209700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1238100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1250200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1224300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1086900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1174800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1168600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1086800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1131300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1155900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>818200</v>
+      </c>
+      <c r="E10" s="3">
         <v>775400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>788400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>760000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>754000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>699600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>692400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>773800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>771300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>678200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>694400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>728500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>755000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>662100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>652500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>722900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,63 +1045,66 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>6600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3300</v>
       </c>
       <c r="H14" s="3">
         <v>3300</v>
       </c>
       <c r="I14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J14" s="3">
         <v>110000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>125000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>182500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>73300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>93700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E15" s="3">
         <v>59600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>59900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>58800</v>
       </c>
       <c r="G15" s="3">
         <v>58800</v>
@@ -1091,40 +1113,43 @@
         <v>58800</v>
       </c>
       <c r="I15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="J15" s="3">
         <v>60400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>59700</v>
       </c>
       <c r="K15" s="3">
         <v>59700</v>
       </c>
       <c r="L15" s="3">
+        <v>59700</v>
+      </c>
+      <c r="M15" s="3">
         <v>60500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>52100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>51600</v>
       </c>
       <c r="O15" s="3">
         <v>51600</v>
       </c>
       <c r="P15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>51500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>52100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>51700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1653200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1610700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1745300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1683300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1628000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1521300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1748500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1794300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1691000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1675600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1464500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1740600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1592900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1515100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1587100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1641100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>380800</v>
+      </c>
+      <c r="E18" s="3">
         <v>361100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>346700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>289000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>329800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>257600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>153600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>217600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>330500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>226900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>316800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>330700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>233800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>196700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>237700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>462200</v>
+      </c>
+      <c r="E21" s="3">
         <v>473400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>457400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>399700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>439600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>365700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>263300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>319700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>434200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>338600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>412800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>262800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>435600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>337000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>306400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>342200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E22" s="3">
         <v>46100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>49100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>49400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>53600</v>
       </c>
       <c r="L22" s="3">
         <v>53600</v>
       </c>
       <c r="M22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="N22" s="3">
         <v>47400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>40300</v>
       </c>
       <c r="R22" s="3">
         <v>40300</v>
       </c>
       <c r="S22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="T22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E23" s="3">
         <v>313600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>298400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>242500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>279100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>206700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>101900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>157200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>269400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>173100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>264200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>116000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>291800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>189000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>161900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>197600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E24" s="3">
         <v>76600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>72100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>67900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>80900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>78300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>62200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E26" s="3">
         <v>237000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>226300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>187400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>211200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>154600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>121400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>188500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>133000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>194600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>126800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>110400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>134600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E27" s="3">
         <v>235900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>225100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>186300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>209900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>153800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>120800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>187500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>132300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>185200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>193500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>126200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>134000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1777,14 +1837,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>765800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E33" s="3">
         <v>235900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>225100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>186300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>209900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>153800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>120800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>187500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>132300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>185200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>826900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>193500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>126200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>134000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E35" s="3">
         <v>235900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>225100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>186300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>209900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>153800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>120800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>187500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>132300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>185200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>826900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>193500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>126200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>134000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>405600</v>
+      </c>
+      <c r="E41" s="3">
         <v>396600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>391100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>48800</v>
       </c>
       <c r="H41" s="3">
         <v>48800</v>
       </c>
       <c r="I41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="J41" s="3">
         <v>101300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>206500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>192000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>192600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>186200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>180300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>183200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>139600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2305,248 +2394,263 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E43" s="3">
         <v>497600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>551400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>477300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>522400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>473700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>503800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>502600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>561900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>504200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>385600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>422700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>481600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>433700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>438700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>421400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>993800</v>
+      </c>
+      <c r="E44" s="3">
         <v>995000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>895300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>958800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1013300</v>
       </c>
       <c r="H44" s="3">
         <v>1013300</v>
       </c>
       <c r="I44" s="3">
+        <v>1013300</v>
+      </c>
+      <c r="J44" s="3">
         <v>910300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>924700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>966200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1017400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>854400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>909100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1011700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>981300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>905700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>995600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E45" s="3">
         <v>95600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>92200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>77700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>109800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>92400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>87900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>92200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>122400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>74300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>122200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>121200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2067100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1984800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1972700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1602700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1659200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1613500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1625200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1726200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1787200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1805800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1555000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1609900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1785800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1692100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1641800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1690900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>38600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2554,11 +2658,11 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>40900</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2569,8 +2673,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2587,114 +2691,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2086100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2086900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2117800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2079700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2068700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2058400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1912400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1847900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1818700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1827900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1729100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1633700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1615700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1595700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1617500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1574300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12624600</v>
+      </c>
+      <c r="E49" s="3">
         <v>12682300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12733500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12804200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12916300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12974400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13029700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13197900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13400200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13717000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11858700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11920200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12137600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12196400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12227000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12346700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E52" s="3">
         <v>148300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>149600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>146800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>145300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>155600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>168100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>162300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>158400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>162900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>157400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>153400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>199800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16929700</v>
+      </c>
+      <c r="E54" s="3">
         <v>16902300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16970400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16636200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16791000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16791600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16711300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16927600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17174200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17513000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15301200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15329200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15702000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15641600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15639700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15811700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>857200</v>
+      </c>
+      <c r="E57" s="3">
         <v>780600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>782000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>575000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>521800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>503100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>591000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>519600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>552400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>532100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>512100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>471200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>507400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>477600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>477200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>428500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="E58" s="3">
         <v>697900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>250200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>812000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1129800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1097400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1224500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>803300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>390000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>530000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>144000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>254000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>963500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>783200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>953000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>142000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E59" s="3">
         <v>594600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>554900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>690400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>658500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>690300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>526000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>493500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>492100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>481900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>377700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>364700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>383600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>490100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>402400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>426700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2692800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2073100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1587100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2077400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2310100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2290800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2341500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1816400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1434500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1544000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1033800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1089900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1854500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1750900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1832600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>997200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3917400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4676000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5376800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4587000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4588200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4689000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4686300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5285800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5885100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6184900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4688000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4688500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4294100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4444800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4445500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4945000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1804500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1808000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1815600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1801400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1797400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1804100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1713000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1803800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1824600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1853300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1688300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1746600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2517100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2514000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2511400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2627600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8414700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8557100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8779500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8465800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8695700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8783900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8740800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8906000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9144200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9582200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7410100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7525000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8665700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8709700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8789500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8569800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3010900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2882300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2746800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2620500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2533000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2421900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2367600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2392600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2367600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2275600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2239200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2126700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1383800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1277800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1240500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1480700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8515000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8345200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8190900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8170400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8095300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8007700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7970500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8021600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8030000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7930800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7891100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7804200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7036300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6931900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6850200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7241900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E81" s="3">
         <v>235900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>225100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>186300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>209900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>153800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>120800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>187500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>132300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>185200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>826900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>193500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>126200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>134000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E83" s="3">
         <v>113700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>112100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>111400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>109600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>112300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>110900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>111200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>111900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>101200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>103700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>102200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>104200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>104300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>378700</v>
+      </c>
+      <c r="E89" s="3">
         <v>409000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>287700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>521600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>224000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>221500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>274200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>421100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>202900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>243000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>314400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>469000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>130300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>304300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>264200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>419500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-92600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-88100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-80300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-52600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-93900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-52100</v>
       </c>
       <c r="H94" s="3">
         <v>-52100</v>
       </c>
       <c r="I94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-101400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-103900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>312600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-105800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,13 +5070,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100100</v>
+        <v>-102300</v>
       </c>
       <c r="E96" s="3">
         <v>-100100</v>
@@ -4856,7 +5089,7 @@
         <v>-100100</v>
       </c>
       <c r="H96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="I96" s="3">
         <v>-96500</v>
@@ -4868,31 +5101,34 @@
         <v>-96500</v>
       </c>
       <c r="L96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-88400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-88900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-88000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-88500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-84900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-87200</v>
       </c>
       <c r="R96" s="3">
         <v>-87200</v>
       </c>
       <c r="S96" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="T96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-318500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-357300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>127400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-420900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-172600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-222600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-274600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-282600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-534300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1790500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-196800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-404000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-260100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-193700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-351300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>700</v>
       </c>
       <c r="H101" s="3">
         <v>700</v>
       </c>
       <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>316700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-52500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-105200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2076700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2034000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1971800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2092000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1972300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1957800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1778900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1902100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2011900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2021500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1902500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1781300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1903300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1923600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1748900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1783800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1878800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1267300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1215800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1196400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1303600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1212300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1203800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1079300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1209700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1238100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1250200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1224300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1086900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1174800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1168600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1086800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1131300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1155900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>809400</v>
+      </c>
+      <c r="E10" s="3">
         <v>818200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>775400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>788400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>760000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>754000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>699600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>692400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>773800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>771300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>678200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>694400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>728500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>755000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>662100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>652500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>722900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,78 +1052,84 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>6600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3300</v>
       </c>
       <c r="I14" s="3">
         <v>3300</v>
       </c>
       <c r="J14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K14" s="3">
         <v>110000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>125000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>182500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>73300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>93700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E15" s="3">
         <v>59500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>59600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>59900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>58800</v>
       </c>
       <c r="H15" s="3">
         <v>58800</v>
@@ -1116,40 +1138,43 @@
         <v>58800</v>
       </c>
       <c r="J15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K15" s="3">
         <v>60400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>59700</v>
       </c>
       <c r="L15" s="3">
         <v>59700</v>
       </c>
       <c r="M15" s="3">
+        <v>59700</v>
+      </c>
+      <c r="N15" s="3">
         <v>60500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>52100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>51600</v>
       </c>
       <c r="P15" s="3">
         <v>51600</v>
       </c>
       <c r="Q15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="R15" s="3">
         <v>51500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>52100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1670500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1653200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1610700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1745300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1683300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1628000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1521300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1748500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1794300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1691000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1675600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1464500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1740600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1592900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1515100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1587100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1641100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>406200</v>
+      </c>
+      <c r="E18" s="3">
         <v>380800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>361100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>346700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>289000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>329800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>257600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>153600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>217600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>330500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>226900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>316800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>330700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>233800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>196700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>237700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-32200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>515500</v>
+      </c>
+      <c r="E21" s="3">
         <v>462200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>473400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>457400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>399700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>439600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>365700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>263300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>319700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>434200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>338600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>412800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>262800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>435600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>337000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>306400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>342200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E22" s="3">
         <v>45100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>46100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>49100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>53600</v>
       </c>
       <c r="M22" s="3">
         <v>53600</v>
       </c>
       <c r="N22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="O22" s="3">
         <v>47400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>41600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>40300</v>
       </c>
       <c r="S22" s="3">
         <v>40300</v>
       </c>
       <c r="T22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="U22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>361500</v>
+      </c>
+      <c r="E23" s="3">
         <v>303500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>313600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>298400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>242500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>279100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>206700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>101900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>157200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>269400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>173100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>264200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>116000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>291800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>189000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>161900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>197600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="3">
         <v>72700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>76600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>72100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>67900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>78300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>62200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E26" s="3">
         <v>230800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>237000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>226300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>187400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>211200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>154600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>188500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>133000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>185900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>194600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>126800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>110400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>134600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E27" s="3">
         <v>229900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>235900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>225100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>186300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>209900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>153800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>71200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>187500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>132300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>185200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>193500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>126200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>109800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>134000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,14 +1900,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>765800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>32200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E33" s="3">
         <v>229900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>235900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>225100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>186300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>209900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>153800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>71200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>187500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>132300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>185200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>826900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>193500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>126200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>134000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E35" s="3">
         <v>229900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>235900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>225100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>186300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>209900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>153800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>71200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>187500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>132300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>185200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>826900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>193500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>126200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>134000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>501500</v>
+      </c>
+      <c r="E41" s="3">
         <v>405600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>396600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>391100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>48800</v>
       </c>
       <c r="I41" s="3">
         <v>48800</v>
       </c>
       <c r="J41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K41" s="3">
         <v>101300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>192000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>192600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>186200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>180300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>183200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>139600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2397,249 +2486,264 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>9000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>604900</v>
+      </c>
+      <c r="E43" s="3">
         <v>577000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>497600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>551400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>477300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>522400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>473700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>503800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>502600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>561900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>504200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>385600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>422700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>481600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>433700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>438700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>421400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>897900</v>
+      </c>
+      <c r="E44" s="3">
         <v>993800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>995000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>895300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>958800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1013300</v>
       </c>
       <c r="I44" s="3">
         <v>1013300</v>
       </c>
       <c r="J44" s="3">
+        <v>1013300</v>
+      </c>
+      <c r="K44" s="3">
         <v>910300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>924700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>966200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1017400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>854400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>909100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1011700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>981300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>905700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>995600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E45" s="3">
         <v>90700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>95600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>77700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>109800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>92200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>122400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>74300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>122200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>121200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2078700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2067100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1984800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1972700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1602700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1659200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1613500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1625200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1726200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1787200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1805800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1555000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1609900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1785800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1692100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1641800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1690900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2649,11 +2753,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>38600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2661,11 +2765,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>40900</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2676,8 +2780,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2694,120 +2798,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2085700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2086100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2086900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2117800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2079700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2068700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2058400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1912400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1847900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1818700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1827900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1729100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1633700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1615700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1595700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1617500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1574300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12116300</v>
+      </c>
+      <c r="E49" s="3">
         <v>12624600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12682300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12733500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12804200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12916300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12974400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13029700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13197900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13400200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13717000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11858700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11920200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12137600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12196400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12227000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12346700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E52" s="3">
         <v>151900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>148300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>107800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>149600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>146800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>145300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>155600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>168100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>162300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>158400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>165400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>162900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>157400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>153400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>199800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16429400</v>
+      </c>
+      <c r="E54" s="3">
         <v>16929700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16902300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16970400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16636200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16791000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16791600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16711300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16927600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17174200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17513000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15301200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15329200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15702000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15641600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15639700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15811700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>896700</v>
+      </c>
+      <c r="E57" s="3">
         <v>857200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>780600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>782000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>575000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>521800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>503100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>591000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>519600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>552400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>532100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>512100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>471200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>507400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>477600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>477200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>428500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>923400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1239400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>697900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>250200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>812000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1129800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1097400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1224500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>803300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>390000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>530000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>144000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>254000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>963500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>783200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>953000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>142000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>712300</v>
+      </c>
+      <c r="E59" s="3">
         <v>596200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>594600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>554900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>690400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>658500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>690300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>526000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>493500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>492100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>481900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>377700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>364700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>383600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>490100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>402400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>426700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2532400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2692800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2073100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1587100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2077400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2310100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2290800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2341500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1816400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1434500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1544000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1033800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1089900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1854500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1750900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1832600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>997200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3918000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3917400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4676000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5376800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4587000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4588200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4689000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4686300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5285800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5885100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6184900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4688000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4688500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4294100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4444800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4445500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4945000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1767400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1804500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1808000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1815600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1801400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1797400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1804100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1713000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1803800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1824600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1853300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1688300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1746600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2517100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2514000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2511400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2627600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8217800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8414700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8557100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8779500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8465800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8695700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8783900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8740800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8906000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9144200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9582200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7410100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7525000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8665700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8709700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8789500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8569800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2896100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3010900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2882300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2746800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2620500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2533000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2421900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2367600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2392600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2367600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2275600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2239200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2126700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1383800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1277800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1240500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1480700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8211600</v>
+      </c>
+      <c r="E76" s="3">
         <v>8515000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8345200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8190900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8170400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8095300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8007700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7970500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8021600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8030000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7930800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7891100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7804200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7036300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6931900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6850200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7241900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E81" s="3">
         <v>229900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>235900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>225100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>186300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>209900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>153800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>71200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>187500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>132300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>185200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>826900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>193500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>126200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>134000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E83" s="3">
         <v>113600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>112100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>111400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>109600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>112300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>110900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>111200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>111900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>103700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>102200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>106000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>104200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>486300</v>
+      </c>
+      <c r="E89" s="3">
         <v>378700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>409000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>287700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>521600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>224000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>221500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>274200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>421100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>202900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>243000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>314400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>469000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>130300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>304300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>264200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>419500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-92600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-80300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-52600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-93900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-52100</v>
       </c>
       <c r="I94" s="3">
         <v>-52100</v>
       </c>
       <c r="J94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-101400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>312600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-105800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-65500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,16 +5303,17 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-100100</v>
       </c>
       <c r="F96" s="3">
         <v>-100100</v>
@@ -5092,7 +5325,7 @@
         <v>-100100</v>
       </c>
       <c r="I96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="J96" s="3">
         <v>-96500</v>
@@ -5104,31 +5337,34 @@
         <v>-96500</v>
       </c>
       <c r="M96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-88400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-88900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-88000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-88500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-84900</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-87200</v>
       </c>
       <c r="S96" s="3">
         <v>-87200</v>
       </c>
       <c r="T96" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="U96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-914800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-318500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-357300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>127400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-420900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-172600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-222600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-274600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-282600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-534300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1790500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-196800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-404000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-260100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-193700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-351300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>700</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>316700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-52500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-105200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1920200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2076700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2034000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1971800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2092000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1972300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1957800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1778900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1902100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2011900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2021500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1902500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1781300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1903300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1923600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1748900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1783800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1878800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1184500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1267300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1215800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1196400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1303600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1212300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1203800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1079300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1209700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1238100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1250200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1224300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1086900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1174800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1168600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1086800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1131300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1155900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>735700</v>
+      </c>
+      <c r="E10" s="3">
         <v>809400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>818200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>775400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>788400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>760000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>754000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>699600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>692400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>773800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>771300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>678200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>694400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>728500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>755000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>662100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>652500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>722900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,84 +1071,90 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3300</v>
       </c>
       <c r="J14" s="3">
         <v>3300</v>
       </c>
       <c r="K14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L14" s="3">
         <v>110000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>125000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>182500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>73300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>93700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E15" s="3">
         <v>57000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>59500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>59600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>59900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>58800</v>
       </c>
       <c r="I15" s="3">
         <v>58800</v>
@@ -1141,40 +1163,43 @@
         <v>58800</v>
       </c>
       <c r="K15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="L15" s="3">
         <v>60400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>59700</v>
       </c>
       <c r="M15" s="3">
         <v>59700</v>
       </c>
       <c r="N15" s="3">
+        <v>59700</v>
+      </c>
+      <c r="O15" s="3">
         <v>60500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>52100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>51600</v>
       </c>
       <c r="Q15" s="3">
         <v>51600</v>
       </c>
       <c r="R15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="S15" s="3">
         <v>51500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>52100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>51700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1681500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1670500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1653200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1610700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1745300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1683300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1628000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1521300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1748500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1794300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1691000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1675600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1464500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1740600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1592900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1515100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1587100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1641100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E18" s="3">
         <v>406200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>380800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>361100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>346700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>289000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>329800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>257600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>153600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>217600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>330500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>226900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>316800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>330700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>233800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>196700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>237700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-32200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E21" s="3">
         <v>515500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>462200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>473400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>457400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>399700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>439600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>365700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>263300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>319700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>434200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>338600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>412800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>262800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>435600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>337000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>306400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>342200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E22" s="3">
         <v>43500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>46100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>53600</v>
       </c>
       <c r="N22" s="3">
         <v>53600</v>
       </c>
       <c r="O22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="P22" s="3">
         <v>47400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>40300</v>
       </c>
       <c r="T22" s="3">
         <v>40300</v>
       </c>
       <c r="U22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="V22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E23" s="3">
         <v>361500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>303500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>313600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>298400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>242500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>279100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>206700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>101900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>157200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>269400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>173100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>264200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>116000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>291800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>189000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>161900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>197600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>72700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>76600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>72100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>67900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>80900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>78300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>62200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E26" s="3">
         <v>261500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>230800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>237000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>226300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>187400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>211200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>154600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>121400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>188500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>133000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>185900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>194600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>126800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>110400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>134600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E27" s="3">
         <v>260400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>229900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>235900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>225100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>186300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>209900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>153800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>71200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>187500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>132300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>185200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>193500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>126200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>109800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>134000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,31 +1922,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1903,14 +1963,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>765800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>32200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E33" s="3">
         <v>260400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>229900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>235900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>225100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>186300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>209900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>153800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>187500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>132300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>185200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>826900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>193500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>126200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>109800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>134000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E35" s="3">
         <v>260400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>229900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>235900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>225100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>186300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>209900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>153800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>187500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>132300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>185200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>826900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>193500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>126200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>109800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>134000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E41" s="3">
         <v>501500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>405600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>396600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>391100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>48800</v>
       </c>
       <c r="J41" s="3">
         <v>48800</v>
       </c>
       <c r="K41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="L41" s="3">
         <v>101300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>206500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>192000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>192600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>186200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>180300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>183200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>139600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2489,261 +2578,276 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>9000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>533700</v>
+      </c>
+      <c r="E43" s="3">
         <v>604900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>577000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>497600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>551400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>477300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>522400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>473700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>503800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>502600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>561900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>504200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>385600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>422700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>481600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>433700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>438700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>421400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>959900</v>
+      </c>
+      <c r="E44" s="3">
         <v>897900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>993800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>995000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>895300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>958800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1013300</v>
       </c>
       <c r="J44" s="3">
         <v>1013300</v>
       </c>
       <c r="K44" s="3">
+        <v>1013300</v>
+      </c>
+      <c r="L44" s="3">
         <v>910300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>924700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>966200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1017400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>854400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>909100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1011700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>981300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>905700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>995600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E45" s="3">
         <v>74400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>90700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>95600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>92400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>87900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>92200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>122400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>82900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>122200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>121200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1941700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2078700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2067100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1984800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1972700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1602700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1659200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1613500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1625200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1726200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1787200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1805800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1555000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1609900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1785800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1692100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1641800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1690900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2756,11 +2860,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>38600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2768,11 +2872,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>40900</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2783,8 +2887,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2801,126 +2905,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2143500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2085700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2086100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2086900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2117800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2079700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2068700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2058400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1912400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1847900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1818700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1827900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1729100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1633700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1615700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1595700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1617500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1574300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12064800</v>
+      </c>
+      <c r="E49" s="3">
         <v>12116300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12624600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12682300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12733500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12804200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12916300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12974400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13029700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13197900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13400200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13717000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11858700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11920200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12137600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12196400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12227000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12346700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E52" s="3">
         <v>148700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>151900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>148300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>107800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>149600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>146800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>145300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>155600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>168100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>162300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>158400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>165400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>162900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>157400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>153400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16284200</v>
+      </c>
+      <c r="E54" s="3">
         <v>16429400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16929700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16902300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16970400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16636200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16791000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16791600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16711300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16927600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17174200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17513000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15301200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15329200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15702000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15641600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15639700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15811700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1034100</v>
+      </c>
+      <c r="E57" s="3">
         <v>896700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>857200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>780600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>782000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>575000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>521800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>503100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>591000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>519600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>552400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>532100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>512100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>471200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>507400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>477600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>477200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>428500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1236700</v>
+      </c>
+      <c r="E58" s="3">
         <v>923400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1239400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>697900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>250200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>812000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1129800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1097400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1224500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>803300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>390000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>530000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>144000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>254000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>963500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>783200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>953000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>142000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>596700</v>
+      </c>
+      <c r="E59" s="3">
         <v>712300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>596200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>594600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>554900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>690400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>658500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>690300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>526000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>493500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>492100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>481900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>377700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>364700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>383600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>490100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>402400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>426700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2867500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2532400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2692800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2073100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1587100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2077400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2310100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2290800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2341500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1816400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1434500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1544000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1033800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1089900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1854500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1750900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1832600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>997200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3519300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3918000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3917400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4676000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5376800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4587000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4588200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4689000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4686300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5285800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5885100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6184900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4688000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4688500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4294100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4444800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4445500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4945000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1772600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1767400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1804500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1808000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1815600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1801400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1797400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1804100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1713000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1803800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1824600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1853300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1688300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1746600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2517100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2514000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2511400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2627600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8159400</v>
+      </c>
+      <c r="E66" s="3">
         <v>8217800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8414700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8557100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8779500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8465800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8695700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8783900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8740800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8906000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9144200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9582200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7410100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7525000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8665700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8709700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8789500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8569800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2847500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2896100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3010900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2882300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2746800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2620500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2533000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2421900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2367600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2392600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2367600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2275600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2239200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2126700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1383800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1277800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1240500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1480700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8124800</v>
+      </c>
+      <c r="E76" s="3">
         <v>8211600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8515000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8345200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8190900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8170400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8095300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8007700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7970500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8021600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8030000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7930800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7891100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7804200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7036300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6931900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6850200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7241900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E81" s="3">
         <v>260400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>229900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>235900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>225100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>186300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>209900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>153800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>187500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>132300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>185200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>826900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>193500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>126200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>109800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>134000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E83" s="3">
         <v>110500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>113400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>111400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>109600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>110900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>111200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>111900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>101200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>103700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>102200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>104300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E89" s="3">
         <v>486300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>378700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>409000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>287700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>521600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>224000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>221500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>274200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>421100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>202900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>243000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>314400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>469000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>130300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>304300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>264200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>419500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-92600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-88100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-101300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-80300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-52600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E94" s="3">
         <v>520000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-93900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-52100</v>
       </c>
       <c r="J94" s="3">
         <v>-52100</v>
       </c>
       <c r="K94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-101400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>312600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-105800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-51800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,19 +5536,20 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-102400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-100100</v>
       </c>
       <c r="G96" s="3">
         <v>-100100</v>
@@ -5328,7 +5561,7 @@
         <v>-100100</v>
       </c>
       <c r="J96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="K96" s="3">
         <v>-96500</v>
@@ -5340,31 +5573,34 @@
         <v>-96500</v>
       </c>
       <c r="N96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="O96" s="3">
         <v>-88400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-88900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-88500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-84900</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-87200</v>
       </c>
       <c r="T96" s="3">
         <v>-87200</v>
       </c>
       <c r="U96" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="V96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-353300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-914800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-318500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-357300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>127400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-420900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-172600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-222600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-274600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-282600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-534300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1790500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-196800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-404000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-260100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-193700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-351300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>700</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
       </c>
       <c r="K101" s="3">
+        <v>700</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="E102" s="3">
         <v>95900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>316700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-52500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-105200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>27200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,293 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2050000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1920200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2076700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2034000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1971800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2092000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1972300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1957800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1778900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1902100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2011900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2021500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1902500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1781300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1903300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1923600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1748900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1783800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1878800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1332400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1184500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1267300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1215800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1196400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1303600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1212300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1203800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1079300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1209700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1238100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1250200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1224300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1086900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1174800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1168600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1086800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1131300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1155900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>717600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>644000</v>
+      </c>
+      <c r="F10" s="3">
         <v>735700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>809400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>818200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>775400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>788400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>760000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>754000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>699600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>692400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>773800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>771300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>678200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>694400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>728500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>755000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>662100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>652500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>722900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +974,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1038,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,132 +1106,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F14" s="3">
         <v>22800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>55700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>110000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>125000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>9800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>182500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>9700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>27100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>73300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>93700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F15" s="3">
         <v>56900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>57000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>59500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>59600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>59900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>58800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>58800</v>
       </c>
       <c r="K15" s="3">
         <v>58800</v>
       </c>
       <c r="L15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="N15" s="3">
         <v>60400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>59700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>59700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>60500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>52100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>51600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>51600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>51500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>52100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>51700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1269,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1745100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1605500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1681500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1670500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1653200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1610700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1745300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1683300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1628000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1521300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1748500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1794300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1691000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1675600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1464500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1740600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1592900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1515100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1587100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1641100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>252500</v>
+      </c>
+      <c r="F18" s="3">
         <v>238700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>406200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>380800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>361100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>346700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>289000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>329800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>257600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>153600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>217600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>330500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>226900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>316800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>162700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>330700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>233800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>196700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>237700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1431,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-32200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2700</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>362200</v>
+      </c>
+      <c r="F21" s="3">
         <v>350400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>515500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>462200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>473400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>457400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>399700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>439600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>365700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>263300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>319700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>434200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>338600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>412800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>262800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>435600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>337000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>306400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>342200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F22" s="3">
         <v>42400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>43500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>45100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>46100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>45600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>45100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>49100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>49400</v>
       </c>
       <c r="L22" s="3">
         <v>49100</v>
       </c>
       <c r="M22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="O22" s="3">
         <v>51600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>53600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>53600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>47400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>43100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>41600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>42000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>40300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>40300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>205200</v>
+      </c>
+      <c r="F23" s="3">
         <v>193300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>361500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>303500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>313600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>298400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>242500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>279100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>206700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>101900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>157200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>269400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>173100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>264200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>116000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>291800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>189000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>161900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>197600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F24" s="3">
         <v>46300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>72700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>76600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>72100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>55100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>67900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>52100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>30400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>80900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>40100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>78300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>50500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>97200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>62200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>51500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>63000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1835,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>153900</v>
+      </c>
+      <c r="F26" s="3">
         <v>147000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>261500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>230800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>237000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>226300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>187400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>211200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>154600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>71500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>121400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>188500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>133000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>185900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>65500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>194600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>126800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>110400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>134600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F27" s="3">
         <v>146400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>260400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>229900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>235900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>225100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>186300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>209900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>153800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>71200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>120800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>187500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>132300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>185200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>61100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>193500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>126200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>109800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>134000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +2039,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,11 +2071,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1966,17 +2086,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>765800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1987,8 +2107,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2175,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2243,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>32200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2700</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
       </c>
       <c r="J32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F33" s="3">
         <v>146400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>260400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>229900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>235900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>225100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>186300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>209900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>153800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>71200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>120800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>187500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>132300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>185200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>826900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>193500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>126200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>109800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>134000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2447,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F35" s="3">
         <v>146400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>260400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>229900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>235900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>225100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>186300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>209900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>153800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>71200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>120800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>187500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>132300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>185200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>826900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>193500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>126200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>109800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>134000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2618,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2644,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>168800</v>
+      </c>
+      <c r="F41" s="3">
         <v>334300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>501500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>405600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>396600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>391100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>74400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>48800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>48800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>101300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>206500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>171200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>192000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>192600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>186200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>180300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>183200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>166800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>139600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2581,273 +2759,303 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>9000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>11600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>19600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>8400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>13100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>566000</v>
+      </c>
+      <c r="F43" s="3">
         <v>533700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>604900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>577000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>497600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>551400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>477300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>522400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>473700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>503800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>502600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>561900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>504200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>385600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>422700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>481600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>433700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>438700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>421400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1105500</v>
+      </c>
+      <c r="F44" s="3">
         <v>959900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>897900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>993800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>995000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>895300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>958800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1013300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1013300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>910300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>924700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>966200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1017400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>854400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>909100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1011700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>981300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>905700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>995600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>112600</v>
+      </c>
+      <c r="F45" s="3">
         <v>113800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>74400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>90700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>95600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>134900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>92200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>74700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>77700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>109800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>92400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>87900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>92200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>122400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>82900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>74300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>122200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>121200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2008800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1952900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1941700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2078700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2067100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1984800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1972700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1602700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1659200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1613500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1625200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1726200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1787200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1805800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1555000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1609900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1785800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1692100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1641800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1690900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2863,26 +3071,26 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>38600</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>38600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>40900</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>40900</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2890,11 +3098,11 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2908,132 +3116,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2121900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2143500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2085700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2086100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2086900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2117800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2079700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2068700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2058400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1912400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1847900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1818700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1827900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1729100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1633700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1615700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1595700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1617500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1574300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11952700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12006200</v>
+      </c>
+      <c r="F49" s="3">
         <v>12064800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12116300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12624600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12682300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12733500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12804200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12916300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12974400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13029700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13197900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13400200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13717000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11858700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>11920200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>12137600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>12196400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>12227000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>12346700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3320,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3388,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>130700</v>
+      </c>
+      <c r="F52" s="3">
         <v>134200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>148700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>151900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>148300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>107800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>149600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>146800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>145300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>103100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>155600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>168100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>162300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>158400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>165400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>162900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>157400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>153400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>199800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3524,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16240800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16211700</v>
+      </c>
+      <c r="F54" s="3">
         <v>16284200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16429400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16929700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16902300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16970400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16636200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16791000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16791600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16711300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16927600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17174200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17513000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>15301200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>15329200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>15702000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>15641600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>15639700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>15811700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3622,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3648,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1034100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>896700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>857200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>780600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>782000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>575000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>521800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>503100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>591000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>519600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>552400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>532100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>512100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>471200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>507400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>477600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>477200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>428500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1119100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1236700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>923400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1239400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>697900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>250200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>812000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1129800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1097400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1224500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>803300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>390000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>530000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>144000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>254000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>963500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>783200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>953000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>142000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>602900</v>
+      </c>
+      <c r="F59" s="3">
         <v>596700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>712300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>596200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>594600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>554900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>690400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>658500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>690300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>526000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>493500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>492100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>481900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>377700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>364700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>383600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>490100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>402400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>426700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1890500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2763200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2867500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2532400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2692800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2073100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1587100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2077400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2310100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2290800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2341500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1816400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1434500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1544000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1033800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1089900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1854500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1750900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1832600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>997200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4311400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3519700</v>
+      </c>
+      <c r="F61" s="3">
         <v>3519300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3918000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3917400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4676000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5376800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4587000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4588200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4689000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4686300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5285800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5885100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6184900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4688000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4688500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4294100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4444800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4445500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4945000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1758500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1772600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1767400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1804500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1808000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1815600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1801400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1797400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1804100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1713000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1803800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1824600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1853300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1688300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1746600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2517100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2514000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2511400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2627600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +4120,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4188,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4256,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7954400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8041400</v>
+      </c>
+      <c r="F66" s="3">
         <v>8159400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8217800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8414700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8557100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8779500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8465800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8695700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8783900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8740800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8906000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9144200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9582200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7410100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7525000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8665700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8709700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8789500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8569800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4354,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4418,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4486,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4554,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4622,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2992800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2893800</v>
+      </c>
+      <c r="F72" s="3">
         <v>2847500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2896100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3010900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2882300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2746800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2620500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2533000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2421900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>2367600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>2392600</v>
       </c>
       <c r="N72" s="3">
         <v>2367600</v>
       </c>
       <c r="O72" s="3">
+        <v>2392600</v>
+      </c>
+      <c r="P72" s="3">
+        <v>2367600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>2275600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2239200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2126700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1383800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1277800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1240500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1480700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4758,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4826,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4894,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8286400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8170300</v>
+      </c>
+      <c r="F76" s="3">
         <v>8124800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8211600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8515000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8345200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8190900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8170400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8095300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8007700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7970500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8021600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8030000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7930800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7891100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7804200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7036300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6931900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6850200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7241900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +5030,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F81" s="3">
         <v>146400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>260400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>229900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>235900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>225100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>186300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>209900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>153800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>71200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>120800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>187500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>132300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>185200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>826900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>193500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>126200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>109800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>134000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5201,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F83" s="3">
         <v>114700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>110500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>113600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>113700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>113400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>112100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>111400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>109600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>112300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>110900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>111200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>111900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>101200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>103700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>102200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>106000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>104200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>104300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5333,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5401,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5469,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5537,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5605,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>137800</v>
+      </c>
+      <c r="F89" s="3">
         <v>291000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>486300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>378700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>409000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>287700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>521600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>224000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>221500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>274200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>421100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>202900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>243000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>314400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>469000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>130300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>304300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>264200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>419500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5703,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-108000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-69700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-52400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-76600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-76400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-56500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-63400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-73000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-92600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-88100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-77800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-101300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-111600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-80300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-60400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-69600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-55800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-52600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5835,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5903,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-108000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>520000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-51700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-49200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-93900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-73400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-52100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-52100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-101400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-103900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>312600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-105800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-65500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-68200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-38100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-41600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-51800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,25 +6001,27 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-98400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-102400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-100100</v>
       </c>
       <c r="I96" s="3">
         <v>-100100</v>
@@ -5564,10 +6030,10 @@
         <v>-100100</v>
       </c>
       <c r="K96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="L96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="M96" s="3">
         <v>-96500</v>
@@ -5576,31 +6042,37 @@
         <v>-96500</v>
       </c>
       <c r="O96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-88400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-88900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-88000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-88500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-84900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-87200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-87200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +6133,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +6201,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6269,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-223300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-353300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-914800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-318500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-357300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>127400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-420900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-172600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-222600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-274600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-282600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-534300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1790500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-196800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-404000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-61100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-260100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-193700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-351300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>4400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-3400</v>
       </c>
       <c r="M101" s="3">
         <v>700</v>
       </c>
       <c r="N101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>700</v>
+      </c>
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>10300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-165500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-167200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>95900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>316700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>25600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-52500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-105200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>35300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-20800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>16400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>27200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>17800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2057100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2050000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1858000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1920200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2076700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2034000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1971800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2092000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1972300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1957800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1778900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1902100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2011900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2021500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1902500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1781300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1903300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1923600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1748900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1783800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1878800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1367200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1332400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1214000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1184500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1267300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1215800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1196400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1303600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1212300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1203800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1079300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1209700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1238100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1250200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1224300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1086900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1174800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1168600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1086800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1131300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1155900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>689900</v>
+      </c>
+      <c r="E10" s="3">
         <v>717600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>644000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>735700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>809400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>818200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>775400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>788400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>760000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>754000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>699600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>692400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>773800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>771300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>678200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>694400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>728500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>755000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>662100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>652500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>722900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,102 +1128,108 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E14" s="3">
         <v>14300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3300</v>
       </c>
       <c r="M14" s="3">
         <v>3300</v>
       </c>
       <c r="N14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O14" s="3">
         <v>110000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>125000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>182500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>27100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>73300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>93700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="E15" s="3">
         <v>55400</v>
       </c>
       <c r="F15" s="3">
+        <v>55400</v>
+      </c>
+      <c r="G15" s="3">
         <v>56900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>57000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>59500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>59600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>59900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>58800</v>
       </c>
       <c r="L15" s="3">
         <v>58800</v>
@@ -1216,40 +1238,43 @@
         <v>58800</v>
       </c>
       <c r="N15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="O15" s="3">
         <v>60400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>59700</v>
       </c>
       <c r="P15" s="3">
         <v>59700</v>
       </c>
       <c r="Q15" s="3">
+        <v>59700</v>
+      </c>
+      <c r="R15" s="3">
         <v>60500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>52100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>51600</v>
       </c>
       <c r="T15" s="3">
         <v>51600</v>
       </c>
       <c r="U15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="V15" s="3">
         <v>51500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>52100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>51700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1906500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1745100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1605500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1681500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1670500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1653200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1610700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1745300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1683300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1628000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1521300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1748500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1794300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1691000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1675600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1464500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1740600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1592900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1515100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1587100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1641100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E18" s="3">
         <v>304900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>252500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>238700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>406200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>380800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>361100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>346700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>329800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>257600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>153600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>217600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>330500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>226900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>316800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>162700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>330700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>233800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>196700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>237700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-32200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>264300</v>
+      </c>
+      <c r="E21" s="3">
         <v>425000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>362200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>350400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>515500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>462200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>473400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>457400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>399700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>439600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>365700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>263300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>319700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>434200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>338600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>412800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>262800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>435600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>337000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>306400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>342200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E22" s="3">
         <v>40300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>42400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>46100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>53600</v>
       </c>
       <c r="Q22" s="3">
         <v>53600</v>
       </c>
       <c r="R22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="S22" s="3">
         <v>47400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>41600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>40300</v>
       </c>
       <c r="W22" s="3">
         <v>40300</v>
       </c>
       <c r="X22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E23" s="3">
         <v>268800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>205200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>193300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>361500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>303500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>313600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>298400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>242500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>279100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>206700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>101900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>157200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>173100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>264200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>116000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>291800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>189000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>161900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>197600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E24" s="3">
         <v>62800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>51300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>72700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>76600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>72100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>80900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>50500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>97200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>62200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>51500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>63000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E26" s="3">
         <v>206000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>153900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>147000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>261500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>230800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>237000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>226300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>187400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>211200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>154600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>121400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>188500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>133000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>194600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>126800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>110400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>134600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E27" s="3">
         <v>205400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>153400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>146400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>260400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>229900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>235900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>225100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>186300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>209900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>153800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>71200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>187500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>132300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>185200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>193500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>126200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>109800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>134000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,8 +2137,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2092,14 +2152,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>765800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>32200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E33" s="3">
         <v>205400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>153400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>146400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>260400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>229900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>235900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>225100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>186300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>209900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>153800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>120800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>187500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>132300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>185200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>826900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>193500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>126200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>109800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>134000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E35" s="3">
         <v>205400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>153400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>146400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>260400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>229900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>235900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>225100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>186300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>209900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>153800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>120800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>187500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>132300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>185200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>826900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>193500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>126200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>109800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>134000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>284300</v>
+      </c>
+      <c r="E41" s="3">
         <v>155300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>334300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>501500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>405600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>396600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>391100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>48800</v>
       </c>
       <c r="M41" s="3">
         <v>48800</v>
       </c>
       <c r="N41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="O41" s="3">
         <v>101300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>206500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>192000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>192600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>186200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>180300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>183200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>166800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>139600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2765,297 +2854,312 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>9000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>563200</v>
+      </c>
+      <c r="E43" s="3">
         <v>659100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>566000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>533700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>604900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>577000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>497600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>551400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>477300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>522400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>473700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>503800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>502600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>561900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>504200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>385600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>422700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>481600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>433700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>438700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>421400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1105500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>959900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>897900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>993800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>995000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>895300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>958800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1013300</v>
       </c>
       <c r="M44" s="3">
         <v>1013300</v>
       </c>
       <c r="N44" s="3">
+        <v>1013300</v>
+      </c>
+      <c r="O44" s="3">
         <v>910300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>924700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>966200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1017400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>854400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>909100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1011700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>981300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>905700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>995600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E45" s="3">
         <v>94200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>113800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>95600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>134900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>92400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>92200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>122400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>82900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>74300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>122200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>121200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1988200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2008800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1952900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1941700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2078700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2067100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1984800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1972700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1602700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1659200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1613500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1625200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1726200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1787200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1805800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1555000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1609900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1785800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1692100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1641800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1690900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3077,11 +3181,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>38600</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3089,11 +3193,11 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>40900</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3104,8 +3208,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3122,144 +3226,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2108900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2139000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2121900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2143500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2085700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2086100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2086900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2117800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2079700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2068700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2058400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1912400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1847900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1818700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1827900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1729100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1633700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1615700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1595700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1617500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1574300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11727800</v>
+      </c>
+      <c r="E49" s="3">
         <v>11952700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12006200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12064800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12116300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12624600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12682300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12733500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12804200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12916300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12974400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13029700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13197900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13400200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13717000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11858700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11920200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12137600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12196400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12227000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12346700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E52" s="3">
         <v>140300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>130700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>134200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>148700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>151900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>148300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>149600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>146800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>145300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>103100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>155600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>168100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>162300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>158400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>165400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>162900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>157400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>153400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>199800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15966400</v>
+      </c>
+      <c r="E54" s="3">
         <v>16240800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16211700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16284200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16429400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16929700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16902300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16970400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16636200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16791000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16791600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16711300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16927600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17174200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17513000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15301200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15329200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15702000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15641600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15639700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15811700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1006800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1031000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1041200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1034100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>896700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>857200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>780600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>782000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>575000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>521800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>503100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>591000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>519600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>552400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>532100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>512100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>471200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>507400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>477600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>477200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>428500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E58" s="3">
         <v>321500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1119100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1236700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>923400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1239400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>697900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>250200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>812000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1129800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1097400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1224500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>803300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>390000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>530000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>144000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>254000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>963500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>783200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>953000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>142000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>562400</v>
+      </c>
+      <c r="E59" s="3">
         <v>538000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>602900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>596700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>712300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>596200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>594600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>554900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>690400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>658500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>690300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>526000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>493500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>492100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>481900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>377700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>364700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>383600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>490100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>402400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>426700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1664600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1890500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2763200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2867500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2532400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2692800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2073100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1587100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2077400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2310100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2290800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2341500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1816400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1434500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1544000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1033800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1089900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1854500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1750900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1832600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>997200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4312000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4311400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3519700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3519300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3918000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3917400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4676000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5376800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4587000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4588200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4689000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4686300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5285800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5885100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6184900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4688000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4688500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4294100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4444800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4445500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4945000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1722900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1752500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1758500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1772600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1767400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1804500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1808000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1815600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1801400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1797400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1804100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1713000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1803800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1824600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1853300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1688300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1746600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2517100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2514000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2511400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2627600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7699500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7954400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8041400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8159400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8217800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8414700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8557100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8779500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8465800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8695700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8783900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8740800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8906000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9144200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9582200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7410100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7525000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8665700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8709700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8789500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8569800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2955500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2992800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2893800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2847500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2896100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3010900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2882300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2746800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2620500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2533000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2421900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2367600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2392600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2367600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2275600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2239200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2126700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1383800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1277800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1240500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1480700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8266900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8286400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8170300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8124800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8211600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8515000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8345200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8190900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8170400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8095300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8007700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7970500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8021600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8030000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7930800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7891100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7804200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7036300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6931900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6850200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7241900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E81" s="3">
         <v>205400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>153400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>146400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>260400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>229900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>235900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>225100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>186300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>209900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>153800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>120800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>187500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>132300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>185200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>826900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>193500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>126200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>109800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>134000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E83" s="3">
         <v>115900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>114700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>110500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>113600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>113700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>113400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>111400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>109600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>112300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>110900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>111200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>111900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>101200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>103700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>102200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>106000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>104200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>104300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>439700</v>
+      </c>
+      <c r="E89" s="3">
         <v>165100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>291000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>486300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>378700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>409000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>287700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>521600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>221500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>274200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>421100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>202900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>243000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>314400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>469000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>130300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>304300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>264200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>419500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-68000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-108000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-76400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-101300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-80300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-69600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-52600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-80000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>520000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-93900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-52100</v>
       </c>
       <c r="M94" s="3">
         <v>-52100</v>
       </c>
       <c r="N94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-101400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>312600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-105800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-68200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-51800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,28 +6235,29 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-106900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-97200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-98400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-102400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-100100</v>
       </c>
       <c r="J96" s="3">
         <v>-100100</v>
@@ -6036,7 +6269,7 @@
         <v>-100100</v>
       </c>
       <c r="M96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="N96" s="3">
         <v>-96500</v>
@@ -6048,31 +6281,34 @@
         <v>-96500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-88400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-88900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-88000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-88500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-84900</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-87200</v>
       </c>
       <c r="W96" s="3">
         <v>-87200</v>
       </c>
       <c r="X96" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-321600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-223300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-353300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-914800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-318500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-357300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>127400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-420900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-172600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-222600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-274600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-282600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-534300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1790500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-196800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-404000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-61100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-260100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-193700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-351300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>700</v>
       </c>
       <c r="M101" s="3">
         <v>700</v>
       </c>
       <c r="N101" s="3">
+        <v>700</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-165500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-167200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>95900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>316700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-52500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-105200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>27200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,329 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1873000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2033800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2057100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2050000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1858000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1920200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2076700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2034000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1971800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2092000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1972300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1957800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1778900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1902100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2011900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2021500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1902500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1781300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1903300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1923600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1748900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1783800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1878800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1319400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1364100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1367200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1332400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1214000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1184500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1267300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1215800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1196400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1303600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1212300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1203800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1079300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1209700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1238100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1250200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1224300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1086900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1174800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1168600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1086800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1131300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1155900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>553600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>669700</v>
+      </c>
+      <c r="F10" s="3">
         <v>689900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>717600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>644000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>735700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>809400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>818200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>775400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>788400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>760000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>754000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>699600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>692400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>773800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>771300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>678200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>694400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>728500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>755000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>662100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>652500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>722900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,150 +1163,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>159200</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>149600</v>
+      </c>
+      <c r="G14" s="3">
         <v>14300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>13300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>22800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>55700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>110000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>125000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>7700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>9800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>182500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>9700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>27100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>73300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>93700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F15" s="3">
         <v>55300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>55400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>55400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>56900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>57000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>59500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>59600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>59900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>58800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>58800</v>
       </c>
       <c r="N15" s="3">
         <v>58800</v>
       </c>
       <c r="O15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="P15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="Q15" s="3">
         <v>60400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>59700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>59700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>60500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>52100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>51600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>51600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>51500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>52100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>51700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1693300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1731800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1906500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1745100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1605500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1681500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1670500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1653200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1610700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1745300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1683300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1628000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1521300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1748500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1794300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1691000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1675600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1464500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1740600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1592900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1515100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1587100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1641100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>302000</v>
+      </c>
+      <c r="F18" s="3">
         <v>150600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>304900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>252500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>238700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>406200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>380800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>361100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>346700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>289000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>329800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>257600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>153600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>217600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>330500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>226900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>316800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>162700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>330700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>233800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>196700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>237700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1530,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-32200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2700</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-7500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>290900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>412300</v>
+      </c>
+      <c r="F21" s="3">
         <v>264300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>425000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>362200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>350400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>515500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>462200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>473400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>457400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>399700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>439600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>365700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>263300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>319700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>434200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>338600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>412800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>262800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>435600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>337000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>306400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>342200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F22" s="3">
         <v>39500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>40300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>43100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>42400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>43500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>45100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>46100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>45600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>45100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>49100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>49400</v>
       </c>
       <c r="O22" s="3">
         <v>49100</v>
       </c>
       <c r="P22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="R22" s="3">
         <v>51600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>53600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>53600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>47400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>43100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>41600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>42000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>40300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>40300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F23" s="3">
         <v>109600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>268800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>205200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>193300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>361500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>303500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>313600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>298400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>242500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>279100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>206700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>101900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>157200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>269400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>173100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>264200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>116000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>291800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>189000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>161900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>197600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F24" s="3">
         <v>39900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>62800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>51300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>46300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>72700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>76600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>72100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>55100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>67900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>52100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>30400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>35800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>80900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>40100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>78300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>50500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>97200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>62200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>51500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>63000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>202100</v>
+      </c>
+      <c r="F26" s="3">
         <v>69700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>206000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>153900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>147000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>261500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>230800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>237000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>226300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>187400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>211200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>154600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>71500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>121400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>188500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>133000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>185900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>65500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>194600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>126800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>110400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>134600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>201500</v>
+      </c>
+      <c r="F27" s="3">
         <v>69600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>205400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>153400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>146400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>260400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>229900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>235900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>225100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>186300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>209900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>153800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>71200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>120800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>187500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>132300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>185200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>61100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>193500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>126200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>109800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>134000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2219,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2140,11 +2260,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2155,17 +2275,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>765800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2450,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>32200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2700</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>7500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>201500</v>
+      </c>
+      <c r="F33" s="3">
         <v>69600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>205400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>153400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>146400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>260400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>229900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>235900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>225100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>186300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>209900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>153800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>71200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>120800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>187500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>132300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>185200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>826900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>193500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>126200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>109800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>134000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>201500</v>
+      </c>
+      <c r="F35" s="3">
         <v>69600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>205400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>153400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>146400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>260400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>229900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>235900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>225100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>186300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>209900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>153800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>71200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>120800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>187500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>132300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>185200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>826900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>193500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>126200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>109800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>134000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2902,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>169900</v>
+      </c>
+      <c r="F41" s="3">
         <v>284300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>155300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>168800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>334300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>501500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>405600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>396600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>391100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>74400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>48800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>48800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>101300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>206500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>171200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>192000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>192600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>186200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>180300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>183200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>166800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>139600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2857,353 +3035,383 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>9000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>11600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>19600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>8400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>13100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>524700</v>
+      </c>
+      <c r="F43" s="3">
         <v>563200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>659100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>566000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>533700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>604900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>577000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>497600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>551400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>477300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>522400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>473700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>503800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>502600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>561900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>504200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>385600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>422700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>481600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>433700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>438700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>421400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1312800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1089300</v>
+      </c>
+      <c r="F44" s="3">
         <v>1042100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1100200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1105500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>959900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>897900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>993800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>995000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>895300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>958800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1013300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1013300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>910300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>924700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>966200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1017400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>854400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>909100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1011700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>981300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>905700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>995600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F45" s="3">
         <v>98600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>94200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>112600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>113800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>74400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>90700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>95600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>134900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>92200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>74700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>77700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>109800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>92400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>87900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>92200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>122400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>82900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>74300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>122200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>121200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2287700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2010100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1988200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2008800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1952900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1941700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2078700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2067100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1984800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1972700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1602700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1659200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1613500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1625200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1726200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1787200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1805800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1555000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1609900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1785800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1692100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1641800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1690900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>38600</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>38600</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>40900</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>40900</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3211,11 +3419,11 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3229,150 +3437,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2236900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2238200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2108900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2139000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2121900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2143500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2085700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2086100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2086900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2117800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2079700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2068700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2058400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1912400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1847900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1818700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1827900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1729100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1633700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1615700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1595700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1617500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1574300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11613700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11668000</v>
+      </c>
+      <c r="F49" s="3">
         <v>11727800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11952700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12006200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12064800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12116300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12624600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12682300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12733500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12804200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12916300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12974400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13029700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13197900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13400200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13717000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>11858700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>11920200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>12137600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>12196400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>12227000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>12346700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>138700</v>
+      </c>
+      <c r="F52" s="3">
         <v>141500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>140300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>130700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>134200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>148700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>151900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>148300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>107800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>149600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>146800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>145300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>103100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>155600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>168100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>162300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>158400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>165400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>162900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>157400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>153400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>199800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16276700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16055000</v>
+      </c>
+      <c r="F54" s="3">
         <v>15966400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16240800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16211700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16284200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16429400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16929700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16902300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16970400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16636200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16791000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16791600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16711300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16927600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17174200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17513000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>15301200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>15329200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>15702000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>15641600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>15639700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>15811700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +4038,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1242600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1006800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1031000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1041200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1034100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>896700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>857200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>780600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>782000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>575000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>521800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>503100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>591000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>519600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>552400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>532100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>512100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>471200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>507400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>477600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>477200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>428500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>181400</v>
+      </c>
+      <c r="F58" s="3">
         <v>95400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>321500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1119100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1236700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>923400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1239400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>697900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>250200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>812000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1129800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1097400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1224500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>803300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>390000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>530000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>144000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>254000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>963500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>783200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>953000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>142000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>545200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>578100</v>
+      </c>
+      <c r="F59" s="3">
         <v>562400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>538000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>602900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>596700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>712300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>596200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>594600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>554900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>690400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>658500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>690300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>526000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>493500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>492100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>481900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>377700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>364700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>383600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>490100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>402400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>426700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2177200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1952800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1664600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1890500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2763200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2867500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2532400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2692800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2073100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1587100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2077400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2310100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2290800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2341500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1816400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1434500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1544000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1033800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1089900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1854500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1750900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1832600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>997200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4314300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4313100</v>
+      </c>
+      <c r="F61" s="3">
         <v>4312000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4311400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3519700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3519300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3918000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3917400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4676000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5376800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4587000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4588200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4689000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4686300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5285800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5885100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6184900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4688000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4688500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4294100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4444800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4445500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4945000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1640900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1722900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1752500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1758500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1772600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1767400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1804500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1808000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1815600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1801400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1797400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1804100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1713000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1803800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1824600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1853300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1688300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1746600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2517100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2514000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2511400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2627600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8132400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7914900</v>
+      </c>
+      <c r="F66" s="3">
         <v>7699500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7954400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8041400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8159400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8217800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8414700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8557100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8779500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8465800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8695700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8783900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8740800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8906000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9144200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9582200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7410100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7525000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8665700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8709700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8789500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8569800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4987,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +5064,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2893400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2893000</v>
+      </c>
+      <c r="F72" s="3">
         <v>2955500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2992800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2893800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2847500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2896100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3010900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2882300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2746800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2620500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2533000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2421900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>2367600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>2392600</v>
       </c>
       <c r="Q72" s="3">
         <v>2367600</v>
       </c>
       <c r="R72" s="3">
+        <v>2392600</v>
+      </c>
+      <c r="S72" s="3">
+        <v>2367600</v>
+      </c>
+      <c r="T72" s="3">
         <v>2275600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2239200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2126700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1383800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1277800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1240500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1480700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8144300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8140100</v>
+      </c>
+      <c r="F76" s="3">
         <v>8266900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8286400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8170300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8124800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8211600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8515000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8345200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8190900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8170400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8095300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8007700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7970500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8021600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8030000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7930800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7891100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7804200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7036300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6931900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6850200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7241900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>201500</v>
+      </c>
+      <c r="F81" s="3">
         <v>69600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>205400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>153400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>146400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>260400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>229900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>235900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>225100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>186300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>209900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>153800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>71200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>120800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>187500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>132300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>185200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>826900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>193500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>126200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>109800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>134000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>114100</v>
+      </c>
+      <c r="F83" s="3">
         <v>115200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>115900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>113900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>114700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>110500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>113600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>113700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>113400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>112100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>111400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>109600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>112300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>110900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>111200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>111900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>101200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>103700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>102200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>106000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>104200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>104300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>393700</v>
+      </c>
+      <c r="F89" s="3">
         <v>439700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>165100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>137800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>291000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>486300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>378700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>409000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>287700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>521600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>224000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>221500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>274200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>421100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>202900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>243000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>314400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>469000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>130300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>304300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>264200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>419500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-117300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-59200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-68000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-108000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-69700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-52400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-76600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-76400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-56500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-63400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-73000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-92600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-77800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-101300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-111600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-80300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-60400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-69600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-55800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-52600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-223600</v>
+      </c>
+      <c r="F94" s="3">
         <v>11100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-63000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-80000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-108000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>520000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-51700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-49200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-93900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-73400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-52100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-52100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-101400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-103900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>312600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-105800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-65500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-68200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-38100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-41600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-51800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,34 +6700,36 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-105100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-107000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-106900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-97200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-98400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-102400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-100100</v>
       </c>
       <c r="L96" s="3">
         <v>-100100</v>
@@ -6272,10 +6738,10 @@
         <v>-100100</v>
       </c>
       <c r="N96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="O96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="P96" s="3">
         <v>-96500</v>
@@ -6284,31 +6750,37 @@
         <v>-96500</v>
       </c>
       <c r="R96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-88400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-88900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-88000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-88500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-84900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-87200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-87200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +7004,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-284100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-321600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-115500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-223300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-353300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-914800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-318500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-357300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>127400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-420900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-172600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-222600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-274600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-282600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-534300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1790500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-196800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-404000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-61100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-260100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-193700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-351300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-3400</v>
       </c>
       <c r="P101" s="3">
         <v>700</v>
       </c>
       <c r="Q101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>700</v>
+      </c>
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>6400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>10300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>1400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="F102" s="3">
         <v>129000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-165500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-167200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>95900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>316700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-52500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-105200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>35300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-20800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>6400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>5900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>16400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>27200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>17800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,353 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2216300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2205100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1873000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2033800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2057100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2050000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1858000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1920200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2076700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2034000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1971800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2092000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1972300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1957800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1778900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1902100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2011900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2021500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1902500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1781300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1903300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1923600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1748900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1783800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1878800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1459500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1501200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1319400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1364100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1367200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1332400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1214000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1184500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1267300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1215800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1196400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1303600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1212300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1203800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1079300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1209700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1238100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1250200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1224300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1086900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1174800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1168600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1086800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1131300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1155900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>756800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>703900</v>
+      </c>
+      <c r="F10" s="3">
         <v>553600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>669700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>689900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>717600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>644000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>735700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>809400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>818200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>775400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>788400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>760000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>754000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>699600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>692400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>773800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>771300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>678200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>694400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>728500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>755000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>662100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>652500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>722900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1039,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1118,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,85 +1201,97 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>149600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>14300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>13300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>22800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>6600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>55700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>110000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>125000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>7700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>9800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>182500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>9700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>27100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>73300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>93700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1255,76 +1299,82 @@
         <v>55600</v>
       </c>
       <c r="E15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="G15" s="3">
         <v>57500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>55300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>55400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>55400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>56900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>57000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>59500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>59600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>59900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>58800</v>
-      </c>
-      <c r="O15" s="3">
-        <v>58800</v>
       </c>
       <c r="P15" s="3">
         <v>58800</v>
       </c>
       <c r="Q15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="R15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="S15" s="3">
         <v>60400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>59700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>59700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>60500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>52100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>51600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>51600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>51500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>52100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>51700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1399,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1898400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1911700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1693300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1731800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1906500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1745100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1605500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1681500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1670500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1653200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1610700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1745300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1683300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1628000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1521300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1748500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1794300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1691000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1675600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1464500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1740600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1592900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1515100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1587100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1641100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>317900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>293400</v>
+      </c>
+      <c r="F18" s="3">
         <v>179700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>302000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>150600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>304900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>252500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>238700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>406200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>380800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>361100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>346700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>289000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>329800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>257600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>153600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>217600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>330500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>226900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>316800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>162700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>330700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>233800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>196700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>237700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,393 +1596,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-32200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2700</v>
       </c>
       <c r="N20" s="3">
         <v>-1400</v>
       </c>
       <c r="O20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-7500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-5200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-3600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>5500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>428700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>405300</v>
+      </c>
+      <c r="F21" s="3">
         <v>290900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>412300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>264300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>425000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>362200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>350400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>515500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>462200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>473400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>457400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>399700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>439600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>365700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>263300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>319700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>434200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>338600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>412800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>262800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>435600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>337000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>306400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>342200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F22" s="3">
         <v>39100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>39500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>40300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>43100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>42400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>43500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>45100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>46100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>45600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>45100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>49100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>49400</v>
       </c>
       <c r="Q22" s="3">
         <v>49100</v>
       </c>
       <c r="R22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="T22" s="3">
         <v>51600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>53600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>53600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>47400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>43100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>41600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>42000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>40300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>40300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>275400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>252900</v>
+      </c>
+      <c r="F23" s="3">
         <v>141100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>260200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>109600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>268800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>205200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>193300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>361500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>303500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>313600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>298400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>242500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>279100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>206700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>101900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>157200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>269400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>173100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>264200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>116000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>291800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>189000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>161900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>197600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F24" s="3">
         <v>31300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>58100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>39900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>62800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>51300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>46300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>72700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>76600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>72100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>55100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>67900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>52100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>30400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>35800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>80900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>40100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>78300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>50500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>97200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>62200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>51500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>63000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2090,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>191100</v>
+      </c>
+      <c r="F26" s="3">
         <v>109800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>202100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>69700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>206000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>153900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>147000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>261500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>230800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>237000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>226300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>187400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>211200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>154600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>71500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>121400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>188500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>133000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>185900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>65500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>194600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>126800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>110400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>134600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F27" s="3">
         <v>109600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>201500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>69600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>205400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>153400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>146400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>260400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>229900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>235900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>225100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>186300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>209900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>153800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>71200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>120800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>187500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>132300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>185200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>61100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>193500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>126200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>109800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>134000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2339,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,11 +2386,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2281,17 +2401,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>765800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2302,8 +2422,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2505,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2588,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>32200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2700</v>
       </c>
       <c r="N32" s="3">
         <v>1400</v>
       </c>
       <c r="O32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>7500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>5200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>3600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F33" s="3">
         <v>109600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>201500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>69600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>205400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>153400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>146400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>260400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>229900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>235900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>225100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>186300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>209900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>153800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>71200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>120800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>187500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>132300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>185200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>826900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>193500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>126200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>109800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>134000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2837,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F35" s="3">
         <v>109600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>201500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>69600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>205400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>153400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>146400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>260400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>229900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>235900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>225100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>186300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>209900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>153800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>71200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>120800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>187500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>132300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>185200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>826900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>193500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>126200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>109800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>134000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +3043,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +3074,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F41" s="3">
         <v>151600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>169900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>284300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>155300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>168800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>334300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>501500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>405600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>396600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>391100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>74400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>48800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>48800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>101300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>206500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>171200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>192000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>192600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>186200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>180300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>183200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>166800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>139600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3041,333 +3219,363 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>9000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>11600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>19600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>8400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>13100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>609500</v>
+      </c>
+      <c r="F43" s="3">
         <v>605000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>524700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>563200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>659100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>566000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>533700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>604900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>577000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>497600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>551400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>477300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>522400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>473700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>503800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>502600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>561900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>504200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>385600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>422700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>481600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>433700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>438700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>421400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1241500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1358400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1312800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1089300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1042100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1100200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1105500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>959900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>897900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>993800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>995000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>895300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>958800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1013300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1013300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>910300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>924700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>966200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1017400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>854400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>909100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1011700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>981300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>905700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>995600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>255900</v>
+      </c>
+      <c r="F45" s="3">
         <v>218300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>226200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>98600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>94200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>112600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>113800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>74400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>90700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>95600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>134900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>92200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>74700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>77700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>109800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>92400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>87900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>92200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>122400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>82900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>100600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>74300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>122200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>121200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2027800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2250900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2287700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2010100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1988200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2008800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1952900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1941700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2078700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2067100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1984800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1972700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1602700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1659200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1613500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1625200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1726200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1787200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1805800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1555000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1609900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1785800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1692100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1641800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1690900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,32 +3600,32 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
-        <v>38600</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>38600</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>40900</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>40900</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3425,11 +3633,11 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3443,162 +3651,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2357200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2285300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2236900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2238200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2108900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2139000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2121900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2143500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2085700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2086100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2086900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2117800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2079700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2068700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2058400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1912400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1847900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1818700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1827900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1729100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1633700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1615700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1595700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1617500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1574300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11494500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11544900</v>
+      </c>
+      <c r="F49" s="3">
         <v>11613700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11668000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11727800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11952700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12006200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12064800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12116300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12624600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12682300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12733500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12804200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12916300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12974400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13029700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13197900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>13400200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>13717000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>11858700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>11920200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>12137600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>12196400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>12227000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>12346700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3900,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3983,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>138200</v>
+      </c>
+      <c r="F52" s="3">
         <v>138400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>138700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>141500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>140300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>130700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>134200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>148700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>151900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>148300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>107800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>149600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>146800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>145300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>103100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>155600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>168100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>162300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>158400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>165400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>162900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>157400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>153400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>199800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4149,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16017500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16219300</v>
+      </c>
+      <c r="F54" s="3">
         <v>16276700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16055000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15966400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16240800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16211700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16284200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16429400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16929700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16902300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16970400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16636200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16791000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16791600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16711300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16927600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17174200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>17513000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>15301200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>15329200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>15702000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>15641600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>15639700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>15811700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4267,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4298,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1260600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1242600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1193300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1006800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1031000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1041200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1034100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>896700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>857200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>780600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>782000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>575000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>521800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>503100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>591000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>519600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>552400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>532100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>512100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>471200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>507400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>477600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>477200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>428500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>303400</v>
+      </c>
+      <c r="F58" s="3">
         <v>389400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>181400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>95400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>321500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1119100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1236700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>923400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1239400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>697900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>250200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>812000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1129800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1097400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1224500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>803300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>390000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>530000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>144000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>254000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>963500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>783200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>953000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>142000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>508300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>495700</v>
+      </c>
+      <c r="F59" s="3">
         <v>545200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>578100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>562400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>538000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>602900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>596700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>712300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>596200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>594600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>554900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>690400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>658500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>690300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>526000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>493500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>492100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>481900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>377700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>364700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>383600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>490100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>402400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>426700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1740700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2059700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2177200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1952800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1664600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1890500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2763200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2867500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2532400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2692800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2073100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1587100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2077400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2310100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2290800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2341500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1816400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1434500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1544000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1033800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1089900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1854500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1750900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1832600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>997200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4315800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4315000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4314300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4313100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4312000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4311400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3519700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3519300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3918000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3917400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4676000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5376800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4587000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4588200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4689000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4686300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5285800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5885100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6184900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4688000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4688500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4294100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4444800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4445500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4945000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1626000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1627300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1640900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1649000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1722900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1752500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1758500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1772600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1767400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1804500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1808000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1815600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1801400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1797400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1804100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1713000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1803800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1824600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1853300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1688300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1746600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2517100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2514000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2511400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>2627600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4875,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4958,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +5041,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7682500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8002000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8132400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7914900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7699500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7954400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8041400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8159400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8217800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8414700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8557100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8779500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8465800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8695700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8783900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8740800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8906000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9144200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9582200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7410100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7525000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8665700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8709700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8789500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>8569800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +5159,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5238,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5321,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5404,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5487,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3076200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2976000</v>
+      </c>
+      <c r="F72" s="3">
         <v>2893400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2893000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2955500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2992800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2893800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2847500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2896100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3010900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2882300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2746800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2620500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2533000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2421900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>2367600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>2392600</v>
       </c>
       <c r="S72" s="3">
         <v>2367600</v>
       </c>
       <c r="T72" s="3">
+        <v>2392600</v>
+      </c>
+      <c r="U72" s="3">
+        <v>2367600</v>
+      </c>
+      <c r="V72" s="3">
         <v>2275600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2239200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2126700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1383800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1277800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1240500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1480700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5653,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5736,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5819,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8335000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8217300</v>
+      </c>
+      <c r="F76" s="3">
         <v>8144300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8140100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8266900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8286400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8170300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8124800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8211600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8515000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8345200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8190900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8170400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8095300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8007700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7970500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8021600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8030000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7930800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7891100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7804200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7036300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6931900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6850200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>7241900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5985,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F81" s="3">
         <v>109600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>201500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>69600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>205400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>153400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>146400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>260400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>229900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>235900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>225100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>186300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>209900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>153800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>71200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>120800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>187500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>132300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>185200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>826900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>193500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>126200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>109800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>134000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +6191,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>112700</v>
+      </c>
+      <c r="F83" s="3">
         <v>110700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>114100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>115200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>115900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>113900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>114700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>110500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>113600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>113700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>113400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>112100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>111400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>109600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>112300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>110900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>111200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>111900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>101200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>103700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>102200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>106000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>104200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>104300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6353,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6436,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6519,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6602,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6685,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>584600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>205000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-39000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>393700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>439700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>165100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>137800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>291000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>486300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>378700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>409000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>287700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>521600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>224000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>221500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>274200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>421100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>202900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>243000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>314400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>469000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>130300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>304300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>264200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>419500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6803,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-88300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-173000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-117300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-59200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-68000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-108000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-69700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-52400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-76600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-76400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-56500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-63400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-92600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-88100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-77800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-101300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-111600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-80300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-60400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-69600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-55800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-52600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6965,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +7048,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-137800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-71500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-223600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-63000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-80000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-108000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>520000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-51700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-49200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-93900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-73400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-52100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-52100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-101400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-103900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>312600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-105800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-65500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-68200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-41600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-51800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,40 +7166,42 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-105100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-107000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-107000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-106900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-97200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-98400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-102400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-100100</v>
       </c>
       <c r="N96" s="3">
         <v>-100100</v>
@@ -6744,10 +7210,10 @@
         <v>-100100</v>
       </c>
       <c r="P96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="R96" s="3">
         <v>-96500</v>
@@ -6756,31 +7222,37 @@
         <v>-96500</v>
       </c>
       <c r="T96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-88400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-88900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-88000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-88500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-84900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-87200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-87200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7328,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7411,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7494,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-410600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-190700</v>
+      </c>
+      <c r="F100" s="3">
         <v>91900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-284100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-321600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-115500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-223300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-353300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-914800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-318500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-357300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>127400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-420900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-172600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-222600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-274600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-282600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-534300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1790500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-196800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-404000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-61100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-260100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-193700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-351300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-3400</v>
       </c>
       <c r="R101" s="3">
         <v>700</v>
       </c>
       <c r="S101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="T101" s="3">
+        <v>700</v>
+      </c>
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>6400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-3900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>10300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-18300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-114400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>129000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-165500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-167200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>95900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>316700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>25600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-105200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>35300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-20800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>6400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>5900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>16400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>27200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>17800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>12200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>SJM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,377 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1805200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2234800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2216300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2205100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1873000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2033800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2057100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2050000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1858000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1920200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2076700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2034000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1971800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2092000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1972300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1957800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1778900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1902100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2011900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2021500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1902500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1781300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1903300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1923600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1748900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1783800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1878800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1913900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1150400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1440900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1459500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1501200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1319400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1364100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1367200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1332400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1214000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1184500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1267300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1215800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1196400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1303600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1212300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1203800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1079300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1209700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1238100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1250200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1224300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1086900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1174800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1168600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1086800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1131300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1155900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1171000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>654800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>793900</v>
+      </c>
+      <c r="F10" s="3">
         <v>756800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>703900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>553600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>669700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>689900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>717600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>644000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>735700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>809400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>818200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>775400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>788400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>760000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>754000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>699600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>692400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>773800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>771300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>678200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>694400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>728500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>755000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>662100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>652500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>722900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>742900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1065,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1150,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,174 +1239,192 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1030500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>149600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>14300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>13300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>55700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>3300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>3300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>110000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>125000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>7700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>9800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>182500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>9700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>27100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>73300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>93700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55600</v>
+        <v>39800</v>
       </c>
       <c r="E15" s="3">
-        <v>55600</v>
+        <v>40100</v>
       </c>
       <c r="F15" s="3">
         <v>55600</v>
       </c>
       <c r="G15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="I15" s="3">
         <v>57500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>55300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>55400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>55400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>56900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>57000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>59500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>59600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>59900</v>
-      </c>
-      <c r="P15" s="3">
-        <v>58800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>58800</v>
       </c>
       <c r="R15" s="3">
         <v>58800</v>
       </c>
       <c r="S15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="T15" s="3">
+        <v>58800</v>
+      </c>
+      <c r="U15" s="3">
         <v>60400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>59700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>59700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>60500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>52100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>51600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>51600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>51500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>52100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>51700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1451,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1501700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2875200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1898400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1911700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1693300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1731800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1906500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1745100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1605500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1681500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1670500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1653200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1610700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1745300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1683300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1628000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1521300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1748500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1794300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1691000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1675600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1464500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1740600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1592900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1515100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1587100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1641100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1610600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-640400</v>
+      </c>
+      <c r="F18" s="3">
         <v>317900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>293400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>179700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>302000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>150600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>304900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>252500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>238700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>406200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>380800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>361100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>346700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>289000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>329800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>257600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>153600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>217600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>330500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>226900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>316800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>162700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>330700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>233800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>196700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>237700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,423 +1662,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-32200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2700</v>
       </c>
       <c r="P20" s="3">
         <v>-1400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-8800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-7500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-5200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>2700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>5500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-551100</v>
+      </c>
+      <c r="F21" s="3">
         <v>428700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>405300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>290900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>412300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>264300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>425000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>362200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>350400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>515500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>462200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>473400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>457400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>399700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>439600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>365700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>263300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>319700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>434200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>338600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>412800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>262800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>435600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>337000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>306400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>342200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>411300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F22" s="3">
         <v>37900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>39700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>39100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>39500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>40300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>43100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>42400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>43500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>45100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>46100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>45600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>45100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>49100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>49400</v>
       </c>
       <c r="S22" s="3">
         <v>49100</v>
       </c>
       <c r="T22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="U22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="V22" s="3">
         <v>51600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>53600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>53600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>47400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>43100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>41600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>42000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>40300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>40300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-678600</v>
+      </c>
+      <c r="F23" s="3">
         <v>275400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>252900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>141100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>260200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>109600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>268800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>205200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>193300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>361500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>303500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>313600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>298400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>242500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>279100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>206700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>101900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>157200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>269400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>173100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>264200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>116000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>291800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>189000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>161900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>197600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>265500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="F24" s="3">
         <v>66900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>61800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>31300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>58100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>39900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>62800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>51300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>46300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>72700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>76600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>72100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>55100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>67900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>52100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>30400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>35800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>80900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>40100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>78300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>50500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>97200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>62200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>51500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>63000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2192,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600700</v>
+      </c>
+      <c r="F26" s="3">
         <v>208500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>191100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>109800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>202100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>69700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>206000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>153900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>147000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>261500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>230800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>237000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>226300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>187400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>211200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>154600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>71500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>121400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>188500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>133000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>185900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>65500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>194600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>126800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>110400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>134600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>177300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-599900</v>
+      </c>
+      <c r="F27" s="3">
         <v>208300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>190800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>109600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>201500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>69600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>205400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>153400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>146400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>260400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>229900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>235900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>225100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>186300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>209900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>153800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>71200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>120800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>187500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>132300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>185200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>61100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>193500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>126200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>109800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>134000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2459,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,11 +2512,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2407,17 +2527,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>765800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2428,8 +2548,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2637,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2726,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>32200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2700</v>
       </c>
       <c r="P32" s="3">
         <v>1400</v>
       </c>
       <c r="Q32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>8800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>7500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>5200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-599900</v>
+      </c>
+      <c r="F33" s="3">
         <v>208300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>190800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>109600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>201500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>69600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>205400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>153400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>146400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>260400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>229900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>235900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>225100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>186300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>209900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>153800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>71200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>120800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>187500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>132300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>185200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>826900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>193500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>126200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>109800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>134000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2993,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-599900</v>
+      </c>
+      <c r="F35" s="3">
         <v>208300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>190800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>109600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>201500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>69600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>205400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>153400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>146400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>260400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>229900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>235900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>225100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>186300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>209900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>153800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>71200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>120800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>187500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>132300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>185200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>826900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>193500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>126200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>109800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>134000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3213,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,114 +3246,122 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>241100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>655800</v>
+      </c>
+      <c r="F41" s="3">
         <v>104200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>27100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>151600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>169900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>284300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>155300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>168800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>334300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>501500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>405600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>396600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>391100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>74400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>48800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>48800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>101300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>206500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>171200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>192000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>192600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>186200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>180300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>183200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>166800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>139600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>459800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>487800</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3225,357 +3403,387 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>9000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>11600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>19600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>8400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>13100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>592400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>597600</v>
+      </c>
+      <c r="F43" s="3">
         <v>533900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>609500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>605000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>524700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>563200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>659100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>566000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>533700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>604900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>577000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>497600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>551400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>477300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>522400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>473700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>503800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>502600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>561900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>504200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>385600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>422700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>481600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>433700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>438700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>421400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>517800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1093400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1009800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1241500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1358400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1312800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1089300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1042100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1100200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1105500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>959900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>897900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>993800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>995000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>895300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>958800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1013300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1013300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>910300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>924700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>966200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1017400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>854400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>909100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1011700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>981300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>905700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>995600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>1028400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>107700</v>
+      </c>
+      <c r="F45" s="3">
         <v>148200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>255900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>218300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>226200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>98600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>94200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>112600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>113800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>74400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>90700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>95600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>134900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>92200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>74700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>77700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>109800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>92400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>87900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>92200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>122400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>82900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>100600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>74300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>122200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>121200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2496800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2858700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2027800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2250900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2287700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2010100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1988200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2008800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1952900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1941700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2078700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2067100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1984800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1972700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1602700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1659200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1613500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1625200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1726200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1787200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1805800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1555000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1609900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1785800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1692100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1641800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1690900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1805200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3606,32 +3814,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
-        <v>38600</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>38600</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>40900</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>40900</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3639,11 +3847,11 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3657,174 +3865,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2458800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2342500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2357200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2285300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2236900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2238200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2108900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2139000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2121900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2143500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2085700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2086100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2086900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2117800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2079700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2068700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2058400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1912400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1847900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1818700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1827900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1729100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1633700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1615700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1595700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1617500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1574300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9612200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9646200</v>
+      </c>
+      <c r="F49" s="3">
         <v>11494500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11544900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11613700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11668000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11727800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11952700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12006200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12064800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12116300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12624600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12682300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12733500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12804200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12916300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>12974400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>13029700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>13197900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>13400200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>13717000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>11858700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>11920200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>12137600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>12196400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>12227000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>12346700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>12467300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4132,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4221,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="F52" s="3">
         <v>138000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>138200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>138400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>138700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>141500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>140300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>130700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>134200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>148700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>151900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>148300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>107800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>149600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>146800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>145300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>103100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>155600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>168100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>162300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>158400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>165400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>162900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>157400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>153400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>199800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4399,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14711800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14991400</v>
+      </c>
+      <c r="F54" s="3">
         <v>16017500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16219300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16276700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16055000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15966400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16240800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16211700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16284200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16429400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16929700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16902300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16970400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16636200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16791000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16791600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>16711300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>16927600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17174200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>17513000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>15301200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>15329200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>15702000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>15641600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>15639700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>15811700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>16058200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4525,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4558,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1392600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1231000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1260600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1242600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1193300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1006800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1031000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1041200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1034100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>896700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>857200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>780600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>782000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>575000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>521800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>503100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>591000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>519600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>552400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>532100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>512100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>471200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>507400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>477600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>477200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>428500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>303400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>389400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>181400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>95400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>321500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1119100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1236700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>923400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1239400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>697900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>250200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>812000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1129800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1097400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1224500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>803300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>390000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>530000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>144000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>254000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>963500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>783200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>953000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>142000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>592900</v>
+      </c>
+      <c r="F59" s="3">
         <v>508300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>495700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>545200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>578100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>562400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>538000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>602900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>596700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>712300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>596200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>594600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>554900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>690400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>658500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>690300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>526000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>493500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>492100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>481900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>377700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>364700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>383600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>490100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>402400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>426700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>464500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1947200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1986700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1740700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2059700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2177200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1952800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1664600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1890500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2763200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2867500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2532400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2692800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2073100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1587100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2077400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2310100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2290800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2341500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1816400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1434500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1544000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1033800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1089900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1854500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1750900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1832600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>997200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1306300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4317000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4316400</v>
+      </c>
+      <c r="F61" s="3">
         <v>4315800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4315000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4314300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4313100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4312000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4311400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3519700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3519300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3918000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3917400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4676000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5376800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4587000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4588200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4689000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4686300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5285800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5885100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>6184900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4688000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4688500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4294100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4444800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>4445500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>4945000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>4945400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1444200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1397500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1626000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1627300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1640900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1649000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1722900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1752500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1758500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1772600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1767400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1804500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1808000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1815600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1801400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1797400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1804100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1713000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1803800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1824600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1853300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1688300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1746600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2517100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>2514000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>2511400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>2627600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>2626400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5177,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5266,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5355,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7708400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7700600</v>
+      </c>
+      <c r="F66" s="3">
         <v>7682500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8002000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8132400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7914900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7699500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7954400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8041400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8159400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8217800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8414700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8557100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8779500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8465800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8695700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8783900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8740800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8906000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9144200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9582200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7410100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7525000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8665700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>8709700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>8789500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>8569800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>8878100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5481,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5566,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5655,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5744,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5833,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1964800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2132100</v>
+      </c>
+      <c r="F72" s="3">
         <v>3076200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2976000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2893400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2893000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2955500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2992800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2893800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2847500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2896100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3010900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2882300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2746800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2620500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2533000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2421900</v>
-      </c>
-      <c r="S72" s="3">
-        <v>2367600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>2392600</v>
       </c>
       <c r="U72" s="3">
         <v>2367600</v>
       </c>
       <c r="V72" s="3">
+        <v>2392600</v>
+      </c>
+      <c r="W72" s="3">
+        <v>2367600</v>
+      </c>
+      <c r="X72" s="3">
         <v>2275600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2239200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2126700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1383800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1277800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1240500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1480700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1433400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +6011,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +6100,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6189,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7003400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7290800</v>
+      </c>
+      <c r="F76" s="3">
         <v>8335000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8217300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8144300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8140100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8266900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8286400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8170300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8124800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8211600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8515000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8345200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8190900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8170400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8095300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8007700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7970500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8021600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8030000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7930800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7891100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7804200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>7036300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6931900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>6850200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>7241900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>7180100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6367,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-599900</v>
+      </c>
+      <c r="F81" s="3">
         <v>208300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>190800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>109600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>201500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>69600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>205400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>153400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>146400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>260400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>229900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>235900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>225100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>186300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>209900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>153800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>71200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>120800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>187500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>132300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>185200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>826900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>193500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>126200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>109800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>134000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6587,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F83" s="3">
         <v>115400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>112700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>110700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>114100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>115200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>115900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>113900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>114700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>110500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>113600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>113700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>113400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>112100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>111400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>109600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>112300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>110900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>111200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>111900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>101200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>103700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>102200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>106000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>104200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>104300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6761,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6850,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6939,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +7028,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +7117,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>443800</v>
+      </c>
+      <c r="F89" s="3">
         <v>584600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>205000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-39000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>393700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>439700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>165100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>137800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>291000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>486300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>378700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>409000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>287700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>521600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>224000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>221500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>274200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>421100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>202900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>243000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>314400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>469000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>130300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>304300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>264200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>419500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7243,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-141900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-102100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-88300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-173000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-117300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-59200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-68000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-108000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-69700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-52400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-76600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-76400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-63400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-73000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-92600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-88100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-77800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-101300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-111600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-80300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-60400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-69600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-55800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-52600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7417,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7506,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>563000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-97500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-137800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-71500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-223600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>11100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-80000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-108000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>520000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-51700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-49200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-93900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-52100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-52100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-101400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-103900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>312600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2031500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-105800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-65500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-68200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-38100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-41600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-51800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,46 +7632,48 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-108300</v>
+        <v>-105200</v>
       </c>
       <c r="E96" s="3">
         <v>-108400</v>
       </c>
       <c r="F96" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-105100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-107000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-107000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-106900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-97200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-98400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-102400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-102300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-100100</v>
       </c>
       <c r="P96" s="3">
         <v>-100100</v>
@@ -7216,10 +7682,10 @@
         <v>-100100</v>
       </c>
       <c r="R96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="S96" s="3">
-        <v>-96500</v>
+        <v>-100100</v>
       </c>
       <c r="T96" s="3">
         <v>-96500</v>
@@ -7228,31 +7694,37 @@
         <v>-96500</v>
       </c>
       <c r="V96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="X96" s="3">
         <v>-88400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-88900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-88500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-84900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-87200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-87200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-87100</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7806,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7895,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,91 +7984,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-481300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-455200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-410600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-190700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>91900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-284100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-321600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-115500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-223300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-353300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-914800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-318500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-357300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>127400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-420900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-172600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-222600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-274600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-282600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-534300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1790500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-196800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-404000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-61100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-260100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-193700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-351300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7592,161 +8088,173 @@
         <v>600</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>700</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-3400</v>
       </c>
       <c r="T101" s="3">
         <v>700</v>
       </c>
       <c r="U101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="V101" s="3">
+        <v>700</v>
+      </c>
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-5400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>6400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>10300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>1400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-414700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>551600</v>
+      </c>
+      <c r="F102" s="3">
         <v>77100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-124500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-114400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>129000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-13500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-165500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-167200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>95900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>9000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>316700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>25600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-52500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-105200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>35300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-20800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>6400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>5900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>16400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>27200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>17800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>12200</v>
       </c>
     </row>
